--- a/example/game_06_abyssal_nightfall/relics.xlsx
+++ b/example/game_06_abyssal_nightfall/relics.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:M9"/>
+  <dimension ref="A4:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -648,9 +648,50 @@
         <v>sfx/relics/beacon_loop.wav</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>30</v>
+      </c>
+      <c r="B10" t="str">
+        <v>05</v>
+      </c>
+      <c r="C10" t="str">
+        <v>0005</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Aegis Bloom</v>
+      </c>
+      <c r="E10" t="str">
+        <v>ward</v>
+      </c>
+      <c r="F10" t="str">
+        <v>BURST</v>
+      </c>
+      <c r="G10" t="str">
+        <v>36</v>
+      </c>
+      <c r="H10" t="str">
+        <v>4</v>
+      </c>
+      <c r="I10" t="str">
+        <v>4.0</v>
+      </c>
+      <c r="J10" t="str">
+        <v>20</v>
+      </c>
+      <c r="K10" t="str">
+        <v>Deploys a bloom granting +60 shield for 8s.</v>
+      </c>
+      <c r="L10" t="str">
+        <v>fx/relics/aegis_bloom.png</v>
+      </c>
+      <c r="M10" t="str">
+        <v>sfx/relics/aegis.wav</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:M9"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:M10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/relics.xlsx
+++ b/example/game_06_abyssal_nightfall/relics.xlsx
@@ -519,10 +519,10 @@
         <v>Summons 3 orbitals that deal 22 void DPS.</v>
       </c>
       <c r="L6" t="str">
-        <v>fx/relics/void_orbit.png</v>
+        <v>ui/assets/fx/relics/void_orbit.png</v>
       </c>
       <c r="M6" t="str">
-        <v>sfx/relics/void_hum.wav</v>
+        <v>ui/assets/sfx/relics/void_hum.wav</v>
       </c>
     </row>
     <row r="7">
@@ -560,10 +560,10 @@
         <v>Creates sanctified ring that slows enemies by 35%.</v>
       </c>
       <c r="L7" t="str">
-        <v>fx/relics/sigil_halo.png</v>
+        <v>ui/assets/fx/relics/sigil_halo.png</v>
       </c>
       <c r="M7" t="str">
-        <v>sfx/relics/halo_chime.wav</v>
+        <v>ui/assets/sfx/relics/halo_chime.wav</v>
       </c>
     </row>
     <row r="8">
@@ -601,10 +601,10 @@
         <v>Pulls foes inward, then detonates for 88 frost damage.</v>
       </c>
       <c r="L8" t="str">
-        <v>fx/relics/maelstrom.png</v>
+        <v>ui/assets/fx/relics/maelstrom.png</v>
       </c>
       <c r="M8" t="str">
-        <v>sfx/relics/maelstrom.wav</v>
+        <v>ui/assets/sfx/relics/maelstrom.wav</v>
       </c>
     </row>
     <row r="9">
@@ -642,10 +642,10 @@
         <v>Spectral turret fires light bolts every 0.6s for 16 dmg.</v>
       </c>
       <c r="L9" t="str">
-        <v>fx/relics/seraph_beacon.png</v>
+        <v>ui/assets/fx/relics/seraph_beacon.png</v>
       </c>
       <c r="M9" t="str">
-        <v>sfx/relics/beacon_loop.wav</v>
+        <v>ui/assets/sfx/relics/beacon_loop.wav</v>
       </c>
     </row>
     <row r="10">
@@ -683,10 +683,10 @@
         <v>Deploys a bloom granting +60 shield for 8s.</v>
       </c>
       <c r="L10" t="str">
-        <v>fx/relics/aegis_bloom.png</v>
+        <v>ui/assets/fx/relics/aegis_bloom.png</v>
       </c>
       <c r="M10" t="str">
-        <v>sfx/relics/aegis.wav</v>
+        <v>ui/assets/sfx/relics/aegis.wav</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/relics.xlsx
+++ b/example/game_06_abyssal_nightfall/relics.xlsx
@@ -495,10 +495,10 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Void Orbit</v>
+        <v>虚空环轨矩阵</v>
       </c>
       <c r="E6" t="str">
-        <v>entropy</v>
+        <v>熵能</v>
       </c>
       <c r="F6" t="str">
         <v>AUTO</v>
@@ -516,10 +516,10 @@
         <v>12</v>
       </c>
       <c r="K6" t="str">
-        <v>Summons 3 orbitals that deal 22 void DPS.</v>
+        <v>轨道体:+3|每秒伤害:+22虚空</v>
       </c>
       <c r="L6" t="str">
-        <v>ui/assets/fx/relics/void_orbit.png</v>
+        <v>fx/relics/void_orbit.png</v>
       </c>
       <c r="M6" t="str">
         <v>ui/assets/sfx/relics/void_hum.wav</v>
@@ -536,10 +536,10 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Sigil Halo</v>
+        <v>圣徽光域</v>
       </c>
       <c r="E7" t="str">
-        <v>radiance</v>
+        <v>辉耀</v>
       </c>
       <c r="F7" t="str">
         <v>CHANNEL</v>
@@ -557,10 +557,10 @@
         <v>18</v>
       </c>
       <c r="K7" t="str">
-        <v>Creates sanctified ring that slows enemies by 35%.</v>
+        <v>减速:+35%|持续:+8s</v>
       </c>
       <c r="L7" t="str">
-        <v>ui/assets/fx/relics/sigil_halo.png</v>
+        <v>fx/relics/sigil_halo.png</v>
       </c>
       <c r="M7" t="str">
         <v>ui/assets/sfx/relics/halo_chime.wav</v>
@@ -577,10 +577,10 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Maelstrom Core</v>
+        <v>潮汐漩核</v>
       </c>
       <c r="E8" t="str">
-        <v>tides</v>
+        <v>潮汐</v>
       </c>
       <c r="F8" t="str">
         <v>BURST</v>
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="K8" t="str">
-        <v>Pulls foes inward, then detonates for 88 frost damage.</v>
+        <v>拉拽强度:+100|爆裂伤害:+88霜寒</v>
       </c>
       <c r="L8" t="str">
-        <v>ui/assets/fx/relics/maelstrom.png</v>
+        <v>fx/relics/maelstrom.png</v>
       </c>
       <c r="M8" t="str">
         <v>ui/assets/sfx/relics/maelstrom.wav</v>
@@ -618,10 +618,10 @@
         <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>Seraph Beacon</v>
+        <v>炽天光塔</v>
       </c>
       <c r="E9" t="str">
-        <v>radiance</v>
+        <v>辉耀</v>
       </c>
       <c r="F9" t="str">
         <v>AUTO</v>
@@ -639,10 +639,10 @@
         <v>10</v>
       </c>
       <c r="K9" t="str">
-        <v>Spectral turret fires light bolts every 0.6s for 16 dmg.</v>
+        <v>射速:0.6s|伤害:+16光耀</v>
       </c>
       <c r="L9" t="str">
-        <v>ui/assets/fx/relics/seraph_beacon.png</v>
+        <v>fx/relics/seraph_beacon.png</v>
       </c>
       <c r="M9" t="str">
         <v>ui/assets/sfx/relics/beacon_loop.wav</v>
@@ -659,10 +659,10 @@
         <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>Aegis Bloom</v>
+        <v>护域绽放</v>
       </c>
       <c r="E10" t="str">
-        <v>ward</v>
+        <v>护盾</v>
       </c>
       <c r="F10" t="str">
         <v>BURST</v>
@@ -680,10 +680,10 @@
         <v>20</v>
       </c>
       <c r="K10" t="str">
-        <v>Deploys a bloom granting +60 shield for 8s.</v>
+        <v>护盾:+60|持续:+8s</v>
       </c>
       <c r="L10" t="str">
-        <v>ui/assets/fx/relics/aegis_bloom.png</v>
+        <v>fx/relics/aegis_bloom.png</v>
       </c>
       <c r="M10" t="str">
         <v>ui/assets/sfx/relics/aegis.wav</v>
